--- a/Шаблон.xlsx
+++ b/Шаблон.xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="МояТаблица">МоятТаблица1[]</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18,12 +21,40 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Столбец2</t>
+  </si>
+  <si>
+    <t>Столбец3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -49,11 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +101,22 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="МоятТаблица1" displayName="МоятТаблица1" ref="B3:D8" totalsRowShown="0">
+  <autoFilter ref="B3:D8"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Столбец1"/>
+    <tableColumn id="2" name="Столбец2"/>
+    <tableColumn id="3" name="Столбец3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,12 +154,12 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +194,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -181,7 +226,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +376,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>